--- a/src/test/java/com/pack/testData/UpdateJobTab (2).xlsx
+++ b/src/test/java/com/pack/testData/UpdateJobTab (2).xlsx
@@ -214,15 +214,15 @@
     <t>Piece Rate1</t>
   </si>
   <si>
-    <t>(//div[@row-index='1']/div[3]/div/div/div[1])[1]
-//div[contains(text(),'10. Rooms\Front Office\Bell Person O/N')]
-//div[contains(text(),'10. Rooms\Front Office\FO  Coord')]
-//div[contains(text(),'10. Rooms\Front Office\GSA')]
-//div[contains(text(),'10. Rooms\Front Office\Bell Person')]
-//div[contains(text(),'10. Rooms\Front Office\Door Person')]
-//div[contains(text(),'10. Rooms\Front Office\FO Agent O/N')]
-//div[contains(text(),'10. Rooms\Front Office\Door Person')]
-//div[contains(text(),'10. Rooms\Front Office\Door Person O/N')]
+    <t>(//div[@row-index='1']/div[3]/div/div/div[1])[1]
+//div[contains(text(),'10. Rooms\Front Office\Bell Person O/N')]
+//div[contains(text(),'10. Rooms\Front Office\FO  Coord')]
+//div[contains(text(),'10. Rooms\Front Office\GSA')]
+//div[contains(text(),'10. Rooms\Front Office\Bell Person')]
+//div[contains(text(),'10. Rooms\Front Office\Door Person')]
+//div[contains(text(),'10. Rooms\Front Office\FO Agent O/N')]
+//div[contains(text(),'10. Rooms\Front Office\Door Person')]
+//div[contains(text(),'10. Rooms\Front Office\Door Person O/N')]
 //div[contains(text(),'10. Rooms\Front Office\FO Agent')]</t>
   </si>
   <si>
@@ -232,38 +232,38 @@
     <t>PayType</t>
   </si>
   <si>
-    <t xml:space="preserve">Hourly Rate
+    <t xml:space="preserve">Hourly Rate
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Annual Rate
+    <t xml:space="preserve">Annual Rate
 </t>
   </si>
   <si>
-    <t xml:space="preserve">SEAnnual Rate
+    <t xml:space="preserve">SEAnnual Rate
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Piece Rate
+    <t xml:space="preserve">Piece Rate
 </t>
   </si>
   <si>
     <t>PayType1</t>
   </si>
   <si>
-    <t xml:space="preserve">Hourly Rate1
+    <t xml:space="preserve">Hourly Rate1
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Annual Rate1
+    <t xml:space="preserve">Annual Rate1
 </t>
   </si>
   <si>
-    <t xml:space="preserve">SEAnnual Rate1
+    <t xml:space="preserve">SEAnnual Rate1
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Piece Rate1
+    <t xml:space="preserve">Piece Rate1
 </t>
   </si>
   <si>
@@ -282,19 +282,172 @@
     <t>Piece Rate2</t>
   </si>
   <si>
-    <t xml:space="preserve">6900
+    <t xml:space="preserve">6900
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
+    <t xml:space="preserve">
 </t>
+  </si>
+  <si>
+    <t>Filter Job</t>
+  </si>
+  <si>
+    <t>//li[1]//ul[1]//li[2]//ul[1]//li[3]//span[2]//span[1]</t>
+  </si>
+  <si>
+    <t>//li[2]//ul[1]//li[9]//span[2]//span[1]</t>
+  </si>
+  <si>
+    <t>//li[1]//ul[1]//li[2]//ul[1]//li[4]//span[2]//span[1]</t>
+  </si>
+  <si>
+    <t>//li[2]//ul[1]//li[7]//span[2]//span[1]</t>
+  </si>
+  <si>
+    <t>//ul[1]/li[1]/ul[1]/li[2]/ul[1]/li[1]/span[2]/span[1]</t>
+  </si>
+  <si>
+    <t>//ul[1]/li[1]/ul[1]/li[2]/ul[1]/li[2]/span[2]/span[1]</t>
+  </si>
+  <si>
+    <t>//ul[1]/li[1]/ul[1]/li[2]/ul[1]/li[5]/span[2]/span[1]</t>
+  </si>
+  <si>
+    <t>//li[1]//ul[1]//li[2]//ul[1]//li[3]//span[2]//span[1]
+//div[2]/ul[1]/li[1]/ul[1]/li[1]/span[2]/span[1]</t>
+  </si>
+  <si>
+    <t>//div[2]/ul/li[1]/ul/li[2]/ul/li[6]/span[2]/span[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//li[1]//ul[1]//li[2]//ul[1]//li[3]//span[2]//span[1]
+</t>
+  </si>
+  <si>
+    <t>//ul[@role='tree']/li[1]/ul[1]/li[2]/ul[1]/li[6]/span[2]/span[1]</t>
+  </si>
+  <si>
+    <t>//div[2]/ul[1]/li[1]/ul[1]/li[1]/ul[1]/li[1]/span[2]</t>
+  </si>
+  <si>
+    <t>//ul[@role='tree']/li[1]/ul[1]/li[2]/ul[1]/li[9]/span[2]/span[1]</t>
+  </si>
+  <si>
+    <t>//ul[@role='tree']/li[1]/ul[1]/li[2]/ul[1]/li[1]/span[2]/span[1]</t>
+  </si>
+  <si>
+    <t>//ul[@role='tree']/li[1]/ul[1]/li[2]/ul[1]/li[2]/span[2]/span[1]</t>
+  </si>
+  <si>
+    <t>//ul[@role='tree']/li[1]/ul[1]/li[2]/ul[1]/li[5]/span[2]/span[1]</t>
+  </si>
+  <si>
+    <t>//ul[@role='tree']/li[1]/ul[1]/li[2]/ul[1]/li[7]/span[2]/span[1]</t>
+  </si>
+  <si>
+    <t>EmpName</t>
+  </si>
+  <si>
+    <t>//div[@class='uf-employee-label-container line-clamp'][normalize-space()='bharat']</t>
+  </si>
+  <si>
+    <t>//div[@class='uf-employee-label-container line-clamp'][normalize-space()='vishal']</t>
+  </si>
+  <si>
+    <t>//div[@class='uf-employee-label-container line-clamp'][normalize-space()='Cantu, Mira']</t>
+  </si>
+  <si>
+    <t>//div[@class='uf-employee-label-container line-clamp'][normalize-space()='mallik']</t>
+  </si>
+  <si>
+    <t>//div[@class='uf-employee-label-container line-clamp'][normalize-space()='srikanth ']</t>
+  </si>
+  <si>
+    <t>//div[@class='uf-employee-label-container line-clamp'][normalize-space()='srikanth']</t>
+  </si>
+  <si>
+    <t>//div[@class='uf-employee-label-container line-clamp'][normalize-space()='Test7']</t>
+  </si>
+  <si>
+    <t>//div[@class='uf-employee-label-container line-clamp'][normalize-space()='Thornton, Axel']</t>
+  </si>
+  <si>
+    <t>//div[@class='uf-employee-label-container line-clamp'][normalize-space()='tom']</t>
+  </si>
+  <si>
+    <t>//div[@class='uf-employee-label-container line-clamp'][normalize-space()='zach']</t>
+  </si>
+  <si>
+    <t>//div[@class='uf-employee-label-container line-clamp'][normalize-space()='Brooks']</t>
+  </si>
+  <si>
+    <t>bharat</t>
+  </si>
+  <si>
+    <t>Srikanth</t>
+  </si>
+  <si>
+    <t>zach</t>
+  </si>
+  <si>
+    <t>srikanth</t>
+  </si>
+  <si>
+    <t>Cantu, Mira</t>
+  </si>
+  <si>
+    <t>mallik</t>
+  </si>
+  <si>
+    <t>john</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>john,adam</t>
+  </si>
+  <si>
+    <t>Test7</t>
+  </si>
+  <si>
+    <t>Thornton, Axel</t>
+  </si>
+  <si>
+    <t>tom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test7
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thornton, Axel
+</t>
+  </si>
+  <si>
+    <t>tom
+vishal</t>
+  </si>
+  <si>
+    <t>002444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tom
+</t>
+  </si>
+  <si>
+    <t>vishal</t>
+  </si>
+  <si>
+    <t>Winters, Walker</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,6 +473,16 @@
       <name val="Consolas"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -329,7 +492,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -337,11 +500,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -357,6 +534,12 @@
     </xf>
     <xf numFmtId="14" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -674,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2" activeCellId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AA4" workbookViewId="0">
+      <selection activeCell="AE11" sqref="AE11" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -691,25 +874,26 @@
     <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.140625" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.4258" customWidth="1"/>
-    <col min="14" max="14" width="53.7266" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" width="21" customWidth="1"/>
-    <col min="16" max="16" width="11.6328" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" width="11.9062" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" width="13.8164" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" width="10.543" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" width="53.7266" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="71.1797" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" width="14.9062" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" width="17.9062" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" width="11.6328" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" width="19.8164" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" width="13.3633" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" width="11.9062" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" width="14.3633" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" width="13.8164" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" width="10.543" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" width="7.71094" customWidth="1"/>
+    <col min="13" max="13" width="53.7266" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" width="21" customWidth="1"/>
+    <col min="15" max="15" width="11.6328" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" width="11.9062" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" width="13.8164" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" width="10.543" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" width="53.7266" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="71.1797" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" width="14.9062" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" width="17.9062" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" width="11.6328" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" width="19.8164" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" width="13.3633" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" width="11.9062" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" width="14.3633" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" width="13.8164" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" width="10.543" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" width="52.6328" customWidth="1"/>
+    <col min="31" max="31" width="14.4531" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -750,63 +934,66 @@
         <v>11</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD1" s="0" t="s">
         <v>78</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>976537</v>
+        <v>635677</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>15</v>
@@ -827,48 +1014,51 @@
         <v>8</v>
       </c>
       <c r="L2" s="0">
-        <v>976537</v>
-      </c>
-      <c r="M2" s="3">
-        <v>44552</v>
-      </c>
-      <c r="N2" s="0" t="s">
+        <v>635677</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1">
+      <c r="R2" s="1">
         <v>5</v>
       </c>
-      <c r="T2" s="0" t="s">
+      <c r="S2" s="0" t="s">
         <v>51</v>
       </c>
+      <c r="T2" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="U2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W2" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1">
+      <c r="AC2" s="1">
         <v>8</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>585213</v>
+        <v>123456</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>19</v>
@@ -891,46 +1081,49 @@
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="0">
-        <v>585213</v>
-      </c>
-      <c r="M3" s="4">
-        <v>44552</v>
-      </c>
-      <c r="N3" s="0" t="s">
+        <v>123456</v>
+      </c>
+      <c r="M3" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1">
+      <c r="Q3" s="1">
         <v>8454</v>
       </c>
-      <c r="S3" s="1"/>
-      <c r="T3" s="0" t="s">
+      <c r="R3" s="1"/>
+      <c r="S3" s="0" t="s">
         <v>23</v>
       </c>
+      <c r="T3" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="U3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W3" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="AB3" s="1">
         <v>7654</v>
       </c>
-      <c r="AD3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -961,52 +1154,55 @@
       <c r="L4" s="0">
         <v>1023</v>
       </c>
-      <c r="M4" s="8">
-        <v>44552</v>
-      </c>
-      <c r="N4" s="0" t="s">
+      <c r="M4" s="0" t="s">
         <v>27</v>
       </c>
+      <c r="N4" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="O4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P4" s="1">
+        <v>6900</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>6900</v>
-      </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="X4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1">
+        <v>25</v>
+      </c>
       <c r="Y4" s="1">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="Z4" s="1">
-        <v>5</v>
-      </c>
-      <c r="AA4" s="1">
         <v>8679</v>
       </c>
+      <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
+      <c r="AD4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="5">
-        <v>585876</v>
+        <v>585214</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>28</v>
@@ -1027,48 +1223,51 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="0">
-        <v>585876</v>
-      </c>
-      <c r="M5" s="3">
-        <v>44552</v>
-      </c>
-      <c r="N5" s="0" t="s">
+        <v>585214</v>
+      </c>
+      <c r="M5" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P5" s="1">
+      <c r="O5" s="1">
         <v>8.5</v>
       </c>
+      <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="0" t="s">
+      <c r="S5" s="0" t="s">
         <v>45</v>
       </c>
+      <c r="T5" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="U5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X5" s="1">
+      <c r="W5" s="1">
         <v>9.56</v>
       </c>
+      <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
+      <c r="AD5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>123456</v>
+        <v>7748</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>31</v>
@@ -1093,48 +1292,51 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="0">
-        <v>123456</v>
-      </c>
-      <c r="M6" s="3">
-        <v>44552</v>
-      </c>
-      <c r="N6" s="0" t="s">
+        <v>7748</v>
+      </c>
+      <c r="M6" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1">
+      <c r="O6" s="1"/>
+      <c r="P6" s="1">
         <v>4500</v>
       </c>
+      <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="0" t="s">
+      <c r="S6" s="0" t="s">
         <v>46</v>
       </c>
+      <c r="T6" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="U6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1">
+        <v>35</v>
+      </c>
       <c r="Y6" s="1">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="Z6" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA6" s="1">
         <v>4578</v>
       </c>
+      <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
+      <c r="AD6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -1161,41 +1363,44 @@
       <c r="L7" s="0">
         <v>999887</v>
       </c>
-      <c r="M7" s="3">
-        <v>44552</v>
-      </c>
-      <c r="N7" s="0" t="s">
+      <c r="M7" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1">
+      <c r="R7" s="1">
         <v>3</v>
       </c>
-      <c r="T7" s="0" t="s">
+      <c r="S7" s="0" t="s">
         <v>47</v>
       </c>
+      <c r="T7" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="U7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="W7" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1">
+      <c r="AC7" s="1">
         <v>5</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="8">
@@ -1225,242 +1430,254 @@
       <c r="L8" s="0">
         <v>921</v>
       </c>
-      <c r="M8" s="3">
-        <v>44552</v>
-      </c>
-      <c r="N8" s="0" t="s">
+      <c r="M8" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1">
+      <c r="Q8" s="1">
         <v>9500</v>
       </c>
-      <c r="S8" s="1"/>
-      <c r="T8" s="0" t="s">
+      <c r="R8" s="1"/>
+      <c r="S8" s="0" t="s">
         <v>48</v>
       </c>
+      <c r="T8" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="U8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W8" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1" t="s">
+      <c r="AA8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AB8" s="1">
         <v>4567</v>
       </c>
-      <c r="AD8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>5437</v>
+        <v>987816</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
         <v>30</v>
       </c>
-      <c r="E9" s="1">
-        <v>6.75</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="G9" s="1">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3456</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="0">
-        <v>5437</v>
-      </c>
-      <c r="M9" s="3">
-        <v>44552</v>
-      </c>
-      <c r="N9" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>987816</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" s="1"/>
       <c r="P9" s="1">
-        <v>7.75</v>
+        <v>7200</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="0" t="s">
-        <v>47</v>
+      <c r="S9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="W9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1">
         <v>30</v>
       </c>
-      <c r="X9" s="1">
-        <v>6.75</v>
-      </c>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
+      <c r="Y9" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>3456</v>
+      </c>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
+      <c r="AD9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10">
-        <v>987816</v>
+      <c r="A10" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="1">
-        <v>30</v>
-      </c>
-      <c r="G10" s="1">
-        <v>6</v>
-      </c>
-      <c r="H10" s="1">
-        <v>3456</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="1">
+        <v>7568</v>
+      </c>
       <c r="K10" s="1"/>
-      <c r="L10" s="0">
-        <v>987816</v>
-      </c>
-      <c r="M10" s="3">
-        <v>44552</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="L10" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1">
-        <v>7200</v>
+        <v>6600</v>
       </c>
       <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="0" t="s">
-        <v>49</v>
+      <c r="S10" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="W10" s="1"/>
       <c r="X10" s="1"/>
-      <c r="Y10" s="1">
-        <v>30</v>
-      </c>
-      <c r="Z10" s="1">
-        <v>6</v>
-      </c>
-      <c r="AA10" s="1">
-        <v>3456</v>
-      </c>
-      <c r="AB10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>7568</v>
+      </c>
       <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
+      <c r="AD10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="s">
-        <v>40</v>
+      <c r="A11" s="0">
+        <v>5437</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="E11" s="1">
+        <v>6.75</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="1">
-        <v>7568</v>
-      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="M11" s="3">
-        <v>44552</v>
-      </c>
-      <c r="N11" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>21</v>
+      <c r="L11" s="0">
+        <v>5437</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" s="1">
+        <v>7.75</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="1">
-        <v>6600</v>
-      </c>
-      <c r="S11" s="1"/>
-      <c r="T11" s="0" t="s">
-        <v>50</v>
+      <c r="R11" s="1"/>
+      <c r="S11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="W11" s="1">
+        <v>6.75</v>
       </c>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
-      <c r="AB11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC11" s="1">
-        <v>7568</v>
-      </c>
-      <c r="AD11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE11" s="10" t="s">
+        <v>127</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/java/com/pack/testData/UpdateJobTab (2).xlsx
+++ b/src/test/java/com/pack/testData/UpdateJobTab (2).xlsx
@@ -418,36 +418,50 @@
     <t>tom</t>
   </si>
   <si>
-    <t xml:space="preserve">Test7
+    <t xml:space="preserve">Test7
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Thornton, Axel
+    <t xml:space="preserve">Thornton, Axel
 </t>
   </si>
   <si>
+    <t>tom
+vishal</t>
+  </si>
+  <si>
+    <t>002444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tom
+</t>
+  </si>
+  <si>
+    <t>vishal</t>
+  </si>
+  <si>
+    <t>Winters, Walker</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
     <t>tom
-vishal</t>
-  </si>
-  <si>
-    <t>002444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tom
+tom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cantu, Mira
 </t>
   </si>
   <si>
-    <t>vishal</t>
-  </si>
-  <si>
-    <t>Winters, Walker</t>
+    <t>Brooks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,6 +497,11 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -492,7 +511,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -514,11 +533,18 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -540,6 +566,15 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment wrapText="1" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="2" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -857,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA4" workbookViewId="0">
-      <selection activeCell="AE11" sqref="AE11" activeCellId="0"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AG15" sqref="AG15" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -993,7 +1028,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>635677</v>
+        <v>585214</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>15</v>
@@ -1014,7 +1049,7 @@
         <v>8</v>
       </c>
       <c r="L2" s="0">
-        <v>635677</v>
+        <v>585214</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>51</v>
@@ -1053,12 +1088,12 @@
         <v>82</v>
       </c>
       <c r="AE2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>123456</v>
+        <v>585213</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>19</v>
@@ -1081,7 +1116,7 @@
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="0">
-        <v>123456</v>
+        <v>585213</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>23</v>
@@ -1122,7 +1157,7 @@
         <v>94</v>
       </c>
       <c r="AE3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4">
@@ -1202,7 +1237,7 @@
     </row>
     <row r="5">
       <c r="A5" s="5">
-        <v>585214</v>
+        <v>976537</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>28</v>
@@ -1223,7 +1258,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="0">
-        <v>585214</v>
+        <v>976537</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>45</v>
@@ -1262,7 +1297,7 @@
         <v>96</v>
       </c>
       <c r="AE5" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6">
@@ -1400,7 +1435,7 @@
         <v>98</v>
       </c>
       <c r="AE7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
@@ -1675,9 +1710,10 @@
       <c r="AD11" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="AE11" s="10" t="s">
+      <c r="AE11" s="13" t="s">
         <v>127</v>
       </c>
+      <c r="AF11" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
